--- a/eda_demo.xlsx
+++ b/eda_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="13">
   <si>
     <t>学年</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>部活動の有無</t>
-  </si>
-  <si>
-    <t>勉強時間（時間）</t>
-  </si>
-  <si>
-    <t>睡眠時間（時間）</t>
   </si>
   <si>
     <t>男性</t>
@@ -48,9 +42,32 @@
     <t>あり</t>
   </si>
   <si>
-    <t>通学時間（時間）</t>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
+    <t>1年</t>
+  </si>
+  <si>
+    <t>2年</t>
+  </si>
+  <si>
+    <t>3年</t>
+  </si>
+  <si>
+    <t>通学時間（分）</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勉強時間（分）</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>睡眠時間（分）</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -430,7 +447,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:F101"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,2013 +463,2013 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.81666666666666665</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.8666666666666667</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1.1499999999999999</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>1.2</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1.8</v>
+        <v>108</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.23333333333333334</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1.4666666666666666</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.43333333333333335</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1.9833333333333334</v>
+        <v>119</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.68333333333333335</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1.5333333333333334</v>
+        <v>92</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2</v>
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1.25</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1.55</v>
+        <v>93</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2</v>
+      <c r="A16" t="s">
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>1.55</v>
+        <v>93</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>3</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0.28333333333333333</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>1.05</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>3</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>1.1666666666666667</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>1</v>
+      <c r="A20" t="s">
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>1.7833333333333334</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2</v>
+      <c r="A21" t="s">
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.73333333333333328</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2</v>
+      <c r="A22" t="s">
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>1.5333333333333334</v>
+        <v>92</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2</v>
+      <c r="A23" t="s">
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0.85</v>
+        <v>51</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
+      <c r="A24" t="s">
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>1.55</v>
+        <v>93</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>1.4333333333333333</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1</v>
+      <c r="A26" t="s">
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>0.7</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>1</v>
+      <c r="A27" t="s">
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>1</v>
+      <c r="A28" t="s">
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>1.3666666666666667</v>
+        <v>82</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1</v>
+      <c r="A29" t="s">
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1.2833333333333334</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>2</v>
+      <c r="A30" t="s">
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0.23333333333333334</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>1</v>
+      <c r="A31" t="s">
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>0.41666666666666669</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>3</v>
+      <c r="A32" t="s">
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>3</v>
+      <c r="A33" t="s">
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>1.4166666666666667</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>2</v>
+      <c r="A34" t="s">
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>2</v>
+      <c r="A35" t="s">
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>1.2333333333333334</v>
+        <v>74</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>2</v>
+      <c r="A36" t="s">
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>1.4</v>
+        <v>84</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>3</v>
+      <c r="A37" t="s">
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>0.8666666666666667</v>
+        <v>52</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>2</v>
+      <c r="A38" t="s">
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>1.1499999999999999</v>
+        <v>69</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>2</v>
+      <c r="A39" t="s">
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>1.45</v>
+        <v>87</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1</v>
+      <c r="A40" t="s">
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>1.7333333333333334</v>
+        <v>104</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>2</v>
+      <c r="A41" t="s">
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>1.55</v>
+        <v>93</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>3</v>
+      <c r="A42" t="s">
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>0.9</v>
+        <v>54</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>2</v>
+      <c r="A43" t="s">
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>2</v>
+      <c r="A44" t="s">
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>0.56666666666666665</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>1</v>
+      <c r="A45" t="s">
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>0.4</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>1</v>
+      <c r="A46" t="s">
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>0.4</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>2</v>
+      <c r="A47" t="s">
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>0.31666666666666665</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>2</v>
+      <c r="A48" t="s">
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>0.73333333333333328</v>
+        <v>44</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>3</v>
+      <c r="A49" t="s">
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>0.6166666666666667</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>2</v>
+      <c r="A50" t="s">
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>1.1666666666666667</v>
+        <v>70</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>3</v>
+      <c r="A51" t="s">
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>0.23333333333333334</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>3</v>
+      <c r="A52" t="s">
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1.0333333333333334</v>
+        <v>62</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>2</v>
+      <c r="A53" t="s">
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>0.6166666666666667</v>
+        <v>37</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>3</v>
+      <c r="A54" t="s">
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>0.6</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>3</v>
+      <c r="A55" t="s">
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>1.3166666666666667</v>
+        <v>79</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>1</v>
+      <c r="A56" t="s">
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>0.46666666666666667</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>2</v>
+      <c r="A57" t="s">
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>0.66666666666666663</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2</v>
+      <c r="A58" t="s">
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>1.3333333333333333</v>
+        <v>80</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2</v>
+      <c r="A59" t="s">
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>1.9833333333333334</v>
+        <v>119</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>3</v>
+      <c r="A60" t="s">
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2</v>
+      <c r="A61" t="s">
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>0.55000000000000004</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2</v>
+      <c r="A62" t="s">
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>0.65</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>2</v>
+      <c r="A63" t="s">
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>8.3333333333333329E-2</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>3</v>
+      <c r="A64" t="s">
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>8.3333333333333329E-2</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>1</v>
+      <c r="A65" t="s">
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>0.68333333333333335</v>
+        <v>41</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>2</v>
+      <c r="A66" t="s">
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>0.96666666666666667</v>
+        <v>58</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>1</v>
+      <c r="A67" t="s">
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>0.16666666666666666</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2</v>
+      <c r="A68" t="s">
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>0.71666666666666667</v>
+        <v>43</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>2</v>
+      <c r="A69" t="s">
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>1.8166666666666667</v>
+        <v>109</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>3</v>
+      <c r="A70" t="s">
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>0.36666666666666664</v>
+        <v>22</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>1</v>
+      <c r="A71" t="s">
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>1.4</v>
+        <v>84</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>3</v>
+      <c r="A72" t="s">
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>0.15</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>1</v>
+      <c r="A73" t="s">
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>1.8333333333333333</v>
+        <v>110</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>3</v>
+      <c r="A74" t="s">
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>0.78333333333333333</v>
+        <v>47</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>1</v>
+      <c r="A75" t="s">
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>1.05</v>
+        <v>63</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>3</v>
+      <c r="A76" t="s">
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>0.6</v>
+        <v>36</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>1</v>
+      <c r="A77" t="s">
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>1</v>
+      <c r="A78" t="s">
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>1.1666666666666667</v>
+        <v>70</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>1</v>
+      <c r="A79" t="s">
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>1.8</v>
+        <v>108</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>1</v>
+      <c r="A80" t="s">
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>0.76666666666666672</v>
+        <v>46</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>2</v>
+      <c r="A81" t="s">
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>1.0333333333333334</v>
+        <v>62</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>3</v>
+      <c r="A82" t="s">
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>0.66666666666666663</v>
+        <v>40</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>1</v>
+      <c r="A83" t="s">
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>1.7833333333333334</v>
+        <v>107</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>1</v>
+      <c r="A84" t="s">
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>0.26666666666666666</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>2</v>
+      <c r="A85" t="s">
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>0.85</v>
+        <v>51</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>3</v>
+      <c r="A86" t="s">
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>1.45</v>
+        <v>87</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>2</v>
+      <c r="A87" t="s">
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1.6</v>
+        <v>96</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>1</v>
+      <c r="A88" t="s">
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>8.3333333333333329E-2</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>1</v>
+      <c r="A89" t="s">
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>0.31666666666666665</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>1</v>
+      <c r="A90" t="s">
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>1.7333333333333334</v>
+        <v>104</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>1</v>
+      <c r="A91" t="s">
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>0.96666666666666667</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>1</v>
+      <c r="A92" t="s">
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>0.28333333333333333</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>2</v>
+      <c r="A93" t="s">
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>0.78333333333333333</v>
+        <v>47</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>1</v>
+      <c r="A94" t="s">
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>1.4833333333333334</v>
+        <v>89</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>3</v>
+      <c r="A95" t="s">
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>1.3333333333333333</v>
+        <v>80</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>3</v>
+      <c r="A96" t="s">
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>1.2166666666666666</v>
+        <v>73</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>3</v>
+      <c r="A97" t="s">
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>0.18333333333333332</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>1</v>
+      <c r="A98" t="s">
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>1.2166666666666666</v>
+        <v>73</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>1</v>
+      <c r="A99" t="s">
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>0.8666666666666667</v>
+        <v>52</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>3</v>
+      <c r="A100" t="s">
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>0.13333333333333333</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>1</v>
+      <c r="A101" t="s">
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>1.35</v>
+        <v>81</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
